--- a/biology/Botanique/Psilocybe_merdaria/Psilocybe_merdaria.xlsx
+++ b/biology/Botanique/Psilocybe_merdaria/Psilocybe_merdaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psilocybe merdaria, le Psilocybe des excréments[réf. nécessaire], est une espèce de champignons toxiques de la famille des Strophariaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau et stipe de couleur brun-crème. Odeur d'herbe.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des formes et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (19 janvier 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (19 janvier 2023) :
 Psilocybe merdaria f. macrospora (F.H. Møller) Singer &amp; M.M. Moser, 1965
 Psilocybe merdaria f. merdaria
 Psilocybe merdaria var. macrospora (F.H. Møller) Singer, 1969
@@ -576,11 +592,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Psilocybe merdaria (Fr.) Ricken, 1912[1].
-L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus merdarius Fr., 1821[1].
-Psilocybe merdaria a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Psilocybe merdaria (Fr.) Ricken, 1912.
+L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus merdarius Fr., 1821.
+Psilocybe merdaria a pour synonymes :
 Agaricus merdarius Fr., 1821
 Fungus merderius (Fr.) Kuntze, 1898
 Geophila merdaria (Fr.) Quél., 1886
